--- a/data/pca/factorExposure/factorExposure_2009-11-18.xlsx
+++ b/data/pca/factorExposure/factorExposure_2009-11-18.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,12 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +695,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:F104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,24 +711,36 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>0.005315885369494802</v>
+        <v>0.01669073119576253</v>
       </c>
       <c r="C2">
-        <v>-0.008121843114203024</v>
+        <v>0.001020274905440953</v>
       </c>
       <c r="D2">
-        <v>-0.002962956865928497</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.007793242564556862</v>
+      </c>
+      <c r="E2">
+        <v>0.0008640111140270583</v>
+      </c>
+      <c r="F2">
+        <v>-0.01150048876566822</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -733,24 +751,36 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>0.05014697704653821</v>
+        <v>0.09392114083107442</v>
       </c>
       <c r="C4">
-        <v>-0.09922141257030893</v>
+        <v>0.01499055361070503</v>
       </c>
       <c r="D4">
-        <v>-0.04051959695699495</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>0.08413606360974826</v>
+      </c>
+      <c r="E4">
+        <v>0.02819277981581644</v>
+      </c>
+      <c r="F4">
+        <v>0.03206381121439669</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +791,236 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>0.06565614770757211</v>
+        <v>0.1576007021324754</v>
       </c>
       <c r="C6">
-        <v>-0.1148232602177233</v>
+        <v>0.02568963107139148</v>
       </c>
       <c r="D6">
-        <v>0.03998545648756183</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>-0.02127555236340295</v>
+      </c>
+      <c r="E6">
+        <v>0.01220879704252851</v>
+      </c>
+      <c r="F6">
+        <v>0.04528496598408148</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B7">
-        <v>0.02397562948298466</v>
+        <v>0.06269834201305623</v>
       </c>
       <c r="C7">
-        <v>-0.07519809778843732</v>
+        <v>-0.001556467299868409</v>
       </c>
       <c r="D7">
-        <v>-0.02057730317270308</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>0.05263925631522883</v>
+      </c>
+      <c r="E7">
+        <v>0.00931364720120916</v>
+      </c>
+      <c r="F7">
+        <v>0.04776025138320755</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B8">
-        <v>0.01104520464611571</v>
+        <v>0.05702298155292363</v>
       </c>
       <c r="C8">
-        <v>-0.06514077627599235</v>
+        <v>-0.01353683469368967</v>
       </c>
       <c r="D8">
-        <v>0.009420250269963459</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>0.03341458750052493</v>
+      </c>
+      <c r="E8">
+        <v>0.01729414270830364</v>
+      </c>
+      <c r="F8">
+        <v>-0.02795997149370465</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B9">
-        <v>0.04343524917975566</v>
+        <v>0.07118516605787245</v>
       </c>
       <c r="C9">
-        <v>-0.08684372412883329</v>
+        <v>0.01069058713140007</v>
       </c>
       <c r="D9">
-        <v>-0.04016763199351962</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>0.08591029122384895</v>
+      </c>
+      <c r="E9">
+        <v>0.02236087669798388</v>
+      </c>
+      <c r="F9">
+        <v>0.04747900959100311</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B10">
-        <v>0.02193679371796398</v>
+        <v>0.09481428930505303</v>
       </c>
       <c r="C10">
-        <v>-0.03366655710684744</v>
+        <v>0.02097322173928501</v>
       </c>
       <c r="D10">
-        <v>0.1235026174648178</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>-0.1699637858829809</v>
+      </c>
+      <c r="E10">
+        <v>-0.03535847403817206</v>
+      </c>
+      <c r="F10">
+        <v>-0.05320638422554054</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B11">
-        <v>0.04592218157147093</v>
+        <v>0.08734891950618844</v>
       </c>
       <c r="C11">
-        <v>-0.08831911719648868</v>
+        <v>0.01056497735159276</v>
       </c>
       <c r="D11">
-        <v>-0.06544968315108139</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>0.1165330424502031</v>
+      </c>
+      <c r="E11">
+        <v>0.04593737157349041</v>
+      </c>
+      <c r="F11">
+        <v>0.02103343254406279</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B12">
-        <v>0.04799032722275712</v>
+        <v>0.09208182009907422</v>
       </c>
       <c r="C12">
-        <v>-0.1014204127618946</v>
+        <v>0.00780541322300811</v>
       </c>
       <c r="D12">
-        <v>-0.06383035436984515</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>0.1317804416704526</v>
+      </c>
+      <c r="E12">
+        <v>0.04765813886439783</v>
+      </c>
+      <c r="F12">
+        <v>0.02777598086580739</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B13">
-        <v>0.01852798698130472</v>
+        <v>0.04189090587344773</v>
       </c>
       <c r="C13">
-        <v>-0.0405362540089715</v>
+        <v>0.002862901100103539</v>
       </c>
       <c r="D13">
-        <v>-0.03282893675637875</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>0.0524447609878986</v>
+      </c>
+      <c r="E13">
+        <v>-0.008169219012868524</v>
+      </c>
+      <c r="F13">
+        <v>0.00293258839448501</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B14">
-        <v>0.02131010237587734</v>
+        <v>0.02273938311455731</v>
       </c>
       <c r="C14">
-        <v>-0.01635174446392943</v>
+        <v>0.01356205603213711</v>
       </c>
       <c r="D14">
-        <v>-0.007482217124800651</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>0.03369627438719532</v>
+      </c>
+      <c r="E14">
+        <v>0.01784860881920843</v>
+      </c>
+      <c r="F14">
+        <v>0.01463905179896393</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B15">
-        <v>0.01823839688076983</v>
+        <v>0.0331517536351871</v>
       </c>
       <c r="C15">
-        <v>-0.03202488894546476</v>
+        <v>0.004779409290954068</v>
       </c>
       <c r="D15">
-        <v>-0.01206821059520805</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>0.04488995811956344</v>
+      </c>
+      <c r="E15">
+        <v>0.005740198764016063</v>
+      </c>
+      <c r="F15">
+        <v>0.02302708357906622</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B16">
-        <v>0.0357461360660512</v>
+        <v>0.07431909270599282</v>
       </c>
       <c r="C16">
-        <v>-0.08849211600595329</v>
+        <v>0.001480814235340402</v>
       </c>
       <c r="D16">
-        <v>-0.05537311829453007</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>0.1258553784096306</v>
+      </c>
+      <c r="E16">
+        <v>0.06169464055714888</v>
+      </c>
+      <c r="F16">
+        <v>0.02449385082192474</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,24 +1031,36 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>0.03287320506360495</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>-0.003550663096983112</v>
       </c>
       <c r="D18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>0.01829456734018202</v>
+      </c>
+      <c r="E18">
+        <v>-0.007912796931539559</v>
+      </c>
+      <c r="F18">
+        <v>-0.006730311531462044</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -957,108 +1071,156 @@
       <c r="D19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B20">
-        <v>0.02468781217930501</v>
+        <v>0.0607916907036886</v>
       </c>
       <c r="C20">
-        <v>-0.05644445705561334</v>
+        <v>0.0002406232561984664</v>
       </c>
       <c r="D20">
-        <v>-0.01504377583212447</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>0.07712014578228037</v>
+      </c>
+      <c r="E20">
+        <v>0.05519072921116363</v>
+      </c>
+      <c r="F20">
+        <v>0.02285638831766162</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B21">
-        <v>0.02157045498525635</v>
+        <v>0.04085961990046903</v>
       </c>
       <c r="C21">
-        <v>-0.03013035773120541</v>
+        <v>0.006551773284730543</v>
       </c>
       <c r="D21">
-        <v>-0.006059557399090922</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>0.03698373111776013</v>
+      </c>
+      <c r="E21">
+        <v>-0.005466418907048969</v>
+      </c>
+      <c r="F21">
+        <v>-0.02379703012487581</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B22">
-        <v>0.01066691145420596</v>
+        <v>0.04387320262543338</v>
       </c>
       <c r="C22">
-        <v>-0.02869299396120337</v>
+        <v>0.0008857021969049635</v>
       </c>
       <c r="D22">
-        <v>0.03091555446801835</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>0.005508674651711698</v>
+      </c>
+      <c r="E22">
+        <v>0.03295427167611858</v>
+      </c>
+      <c r="F22">
+        <v>-0.04411880390697534</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B23">
-        <v>0.0106480072638383</v>
+        <v>0.04385879506493452</v>
       </c>
       <c r="C23">
-        <v>-0.02864778921732427</v>
+        <v>0.0008813290933706618</v>
       </c>
       <c r="D23">
-        <v>0.0309719263009462</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>0.00551338334910742</v>
+      </c>
+      <c r="E23">
+        <v>0.03315573907662153</v>
+      </c>
+      <c r="F23">
+        <v>-0.04408300415745085</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B24">
-        <v>0.03902155824085367</v>
+        <v>0.08000050358999164</v>
       </c>
       <c r="C24">
-        <v>-0.09787780222395481</v>
+        <v>0.001929982222516963</v>
       </c>
       <c r="D24">
-        <v>-0.0589006651957234</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>0.1213583053402548</v>
+      </c>
+      <c r="E24">
+        <v>0.04908147610656302</v>
+      </c>
+      <c r="F24">
+        <v>0.02640171336959152</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B25">
-        <v>0.04046934222716021</v>
+        <v>0.08467278375209114</v>
       </c>
       <c r="C25">
-        <v>-0.09131104702268136</v>
+        <v>0.004337068321734652</v>
       </c>
       <c r="D25">
-        <v>-0.07269692073423896</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>0.1091715576595248</v>
+      </c>
+      <c r="E25">
+        <v>0.03204968387389993</v>
+      </c>
+      <c r="F25">
+        <v>0.02681517626531574</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B26">
-        <v>0.03164537053098694</v>
+        <v>0.05778503627532831</v>
       </c>
       <c r="C26">
-        <v>-0.039549632801382</v>
+        <v>0.01423049434824372</v>
       </c>
       <c r="D26">
-        <v>-0.008889323668428525</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>0.03977497877369755</v>
+      </c>
+      <c r="E26">
+        <v>0.02730900258003052</v>
+      </c>
+      <c r="F26">
+        <v>-0.007053079441107867</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,206 +1231,296 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B28">
-        <v>0.02895640413467047</v>
+        <v>0.1401813571902316</v>
       </c>
       <c r="C28">
-        <v>-0.07451967616313139</v>
+        <v>0.02065831700108861</v>
       </c>
       <c r="D28">
-        <v>0.2145536304428638</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>-0.2617511636444538</v>
+      </c>
+      <c r="E28">
+        <v>-0.06740940843017205</v>
+      </c>
+      <c r="F28">
+        <v>0.0101587634214277</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B29">
-        <v>0.01739787562818675</v>
+        <v>0.02749111259062257</v>
       </c>
       <c r="C29">
-        <v>-0.01898062688714652</v>
+        <v>0.008330544687107052</v>
       </c>
       <c r="D29">
-        <v>-0.00608613674912987</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>0.03212711869869479</v>
+      </c>
+      <c r="E29">
+        <v>0.01143836015727965</v>
+      </c>
+      <c r="F29">
+        <v>-0.01128288084037512</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B30">
-        <v>0.03989859240841898</v>
+        <v>0.06074146206897436</v>
       </c>
       <c r="C30">
-        <v>-0.1104477574681359</v>
+        <v>0.003381998015029492</v>
       </c>
       <c r="D30">
-        <v>-0.04669336355194371</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>0.08832312312901057</v>
+      </c>
+      <c r="E30">
+        <v>0.01870826451252307</v>
+      </c>
+      <c r="F30">
+        <v>0.08124091441935154</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B31">
-        <v>0.02647928429551084</v>
+        <v>0.05013644138691088</v>
       </c>
       <c r="C31">
-        <v>-0.02635820997991051</v>
+        <v>0.01511243381413068</v>
       </c>
       <c r="D31">
-        <v>-0.01085024659533088</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>0.02503127687006872</v>
+      </c>
+      <c r="E31">
+        <v>0.02779958630801371</v>
+      </c>
+      <c r="F31">
+        <v>-0.002373961885603706</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B32">
-        <v>0.01753653634915545</v>
+        <v>0.04979710298346834</v>
       </c>
       <c r="C32">
-        <v>-0.049826802046437</v>
+        <v>-0.001611202276627348</v>
       </c>
       <c r="D32">
-        <v>0.002392502553561761</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>0.03677515647003916</v>
+      </c>
+      <c r="E32">
+        <v>0.03153064060638096</v>
+      </c>
+      <c r="F32">
+        <v>0.003223692943175429</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B33">
-        <v>0.04528397755600563</v>
+        <v>0.08984465275867873</v>
       </c>
       <c r="C33">
-        <v>-0.1029197859639656</v>
+        <v>0.007351648221114347</v>
       </c>
       <c r="D33">
-        <v>-0.03887914769564722</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>0.0996436583072234</v>
+      </c>
+      <c r="E33">
+        <v>0.0438847459360624</v>
+      </c>
+      <c r="F33">
+        <v>0.03596875070612583</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B34">
-        <v>0.04058888916449719</v>
+        <v>0.06738997638235331</v>
       </c>
       <c r="C34">
-        <v>-0.07742874454414266</v>
+        <v>0.01033002701674406</v>
       </c>
       <c r="D34">
-        <v>-0.06207162589417007</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>0.1077586201507989</v>
+      </c>
+      <c r="E34">
+        <v>0.03403295360809022</v>
+      </c>
+      <c r="F34">
+        <v>0.0337179948888698</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B35">
-        <v>0.008367583659987217</v>
+        <v>0.02438636381595365</v>
       </c>
       <c r="C35">
-        <v>-0.01797275229570016</v>
+        <v>0.002364799076507027</v>
       </c>
       <c r="D35">
-        <v>-0.002948401901468954</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>0.01142686575322143</v>
+      </c>
+      <c r="E35">
+        <v>0.01147047871134703</v>
+      </c>
+      <c r="F35">
+        <v>0.0005162644160487095</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B36">
-        <v>0.01275365691821061</v>
+        <v>0.02782189111685543</v>
       </c>
       <c r="C36">
-        <v>-0.005534831798697569</v>
+        <v>0.006973506885549538</v>
       </c>
       <c r="D36">
-        <v>-0.02288694297404667</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>0.03941520783673422</v>
+      </c>
+      <c r="E36">
+        <v>0.01622783727213144</v>
+      </c>
+      <c r="F36">
+        <v>0.01502160374104506</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>0.0003570136115583953</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>-0.0001255747193599216</v>
       </c>
       <c r="D37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
+        <v>-0.0002869949508023677</v>
+      </c>
+      <c r="E37">
+        <v>-0.0003331276654270224</v>
+      </c>
+      <c r="F37">
+        <v>0.000563414313923369</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B38">
-        <v>0.001042258263256272</v>
+        <v>0.001413081642453329</v>
       </c>
       <c r="C38">
-        <v>-0.002882864259143416</v>
+        <v>0.0002442831509636298</v>
       </c>
       <c r="D38">
-        <v>0.002394948649974381</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>-0.000479982078069054</v>
+      </c>
+      <c r="E38">
+        <v>0.0001911253437087103</v>
+      </c>
+      <c r="F38">
+        <v>-0.0008272544942860053</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B39">
-        <v>0.06299047736481261</v>
+        <v>0.1053838119517753</v>
       </c>
       <c r="C39">
-        <v>-0.1299258568131251</v>
+        <v>0.01572519485933567</v>
       </c>
       <c r="D39">
-        <v>-0.1138810007336722</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>0.153772076255212</v>
+      </c>
+      <c r="E39">
+        <v>0.0587722785625639</v>
+      </c>
+      <c r="F39">
+        <v>0.02962009577171331</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B40">
-        <v>0.01686494056260849</v>
+        <v>0.04218168724149846</v>
       </c>
       <c r="C40">
-        <v>-0.0202415565998151</v>
+        <v>0.00686921540190238</v>
       </c>
       <c r="D40">
-        <v>0.008795068653266043</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>0.0313532959787159</v>
+      </c>
+      <c r="E40">
+        <v>0.003105439518313098</v>
+      </c>
+      <c r="F40">
+        <v>-0.01668730275694757</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B41">
-        <v>0.01381359034780056</v>
+        <v>0.02807960577460949</v>
       </c>
       <c r="C41">
-        <v>-0.01422143420468124</v>
+        <v>0.006852799614329772</v>
       </c>
       <c r="D41">
-        <v>0.006062040487482268</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>0.009961211528097402</v>
+      </c>
+      <c r="E41">
+        <v>0.01232327454380394</v>
+      </c>
+      <c r="F41">
+        <v>-0.006176215578591269</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1531,56 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B43">
-        <v>0.0167202104690637</v>
+        <v>0.04075407520406104</v>
       </c>
       <c r="C43">
-        <v>-0.02101171742890258</v>
+        <v>0.006818933657527751</v>
       </c>
       <c r="D43">
-        <v>-0.00180700352919146</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>0.01923468490559859</v>
+      </c>
+      <c r="E43">
+        <v>0.02438525467389425</v>
+      </c>
+      <c r="F43">
+        <v>-0.01319293189728679</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B44">
-        <v>0.05692472892824362</v>
+        <v>0.07953384613722908</v>
       </c>
       <c r="C44">
-        <v>-0.1013389391784326</v>
+        <v>0.01977791833931833</v>
       </c>
       <c r="D44">
-        <v>-0.03285127510381722</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>0.09719592187409483</v>
+      </c>
+      <c r="E44">
+        <v>0.06397750465320558</v>
+      </c>
+      <c r="F44">
+        <v>0.1555198692059993</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,164 +1591,236 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B46">
-        <v>0.006891220470501077</v>
+        <v>0.02311221092298068</v>
       </c>
       <c r="C46">
-        <v>-0.007231613007225786</v>
+        <v>0.003413135957798722</v>
       </c>
       <c r="D46">
-        <v>0.01034583411775083</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>0.01259338236855117</v>
+      </c>
+      <c r="E46">
+        <v>0.02150088074871097</v>
+      </c>
+      <c r="F46">
+        <v>-0.00574373388177814</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B47">
-        <v>0.01589701467376353</v>
+        <v>0.05152517586361604</v>
       </c>
       <c r="C47">
-        <v>-0.0268353979874941</v>
+        <v>0.003254618464707136</v>
       </c>
       <c r="D47">
-        <v>0.02078708163568173</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>0.01431927931558467</v>
+      </c>
+      <c r="E47">
+        <v>0.02364115045007004</v>
+      </c>
+      <c r="F47">
+        <v>-0.03197301380989633</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B48">
-        <v>0.01953080507512284</v>
+        <v>0.0499187659674902</v>
       </c>
       <c r="C48">
-        <v>-0.04299001394738087</v>
+        <v>0.00225129510109219</v>
       </c>
       <c r="D48">
-        <v>-0.03485087899968559</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>0.04998213139791129</v>
+      </c>
+      <c r="E48">
+        <v>-0.006450986965365106</v>
+      </c>
+      <c r="F48">
+        <v>0.01075639990456538</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B49">
-        <v>0.08663859805500196</v>
+        <v>0.2003962420786305</v>
       </c>
       <c r="C49">
-        <v>-0.2178316946070629</v>
+        <v>0.01901554203811621</v>
       </c>
       <c r="D49">
-        <v>0.05333831024756503</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>-0.007489946606382787</v>
+      </c>
+      <c r="E49">
+        <v>0.0313412388837773</v>
+      </c>
+      <c r="F49">
+        <v>0.03858169698586448</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B50">
-        <v>0.0242798434689794</v>
+        <v>0.05046791659843675</v>
       </c>
       <c r="C50">
-        <v>-0.03058011312446574</v>
+        <v>0.01105441930281641</v>
       </c>
       <c r="D50">
-        <v>-0.008604431877476493</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>0.02382005845004799</v>
+      </c>
+      <c r="E50">
+        <v>0.02955467787520322</v>
+      </c>
+      <c r="F50">
+        <v>0.0098383007685798</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B51">
-        <v>0.0003816933433143319</v>
+        <v>0.0004371543544434326</v>
       </c>
       <c r="C51">
-        <v>-0.0009439337141316325</v>
+        <v>0.0001238656010772678</v>
       </c>
       <c r="D51">
-        <v>0.0007780961660577481</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>-0.0001329532942461492</v>
+      </c>
+      <c r="E51">
+        <v>0.0001362420218452446</v>
+      </c>
+      <c r="F51">
+        <v>0.001363339063823316</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B52">
-        <v>0.06234126534537793</v>
+        <v>0.146497868785432</v>
       </c>
       <c r="C52">
-        <v>-0.1516450334221733</v>
+        <v>0.01598054363854262</v>
       </c>
       <c r="D52">
-        <v>-0.02850799262160915</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
+        <v>0.0441066734821271</v>
+      </c>
+      <c r="E52">
+        <v>0.02041396409401088</v>
+      </c>
+      <c r="F52">
+        <v>0.04125492049139501</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B53">
-        <v>0.06801054438173904</v>
+        <v>0.171883886517062</v>
       </c>
       <c r="C53">
-        <v>-0.1667600900637164</v>
+        <v>0.01906148568910097</v>
       </c>
       <c r="D53">
-        <v>0.00683493660599754</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>0.006380873494179477</v>
+      </c>
+      <c r="E53">
+        <v>0.03203832138478681</v>
+      </c>
+      <c r="F53">
+        <v>0.07171254043605119</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B54">
-        <v>0.02161732073951814</v>
+        <v>0.02219191644389747</v>
       </c>
       <c r="C54">
-        <v>-0.03002555937046534</v>
+        <v>0.01214675569948245</v>
       </c>
       <c r="D54">
-        <v>-0.006606697645264974</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>0.03420367988308711</v>
+      </c>
+      <c r="E54">
+        <v>0.01845586906735434</v>
+      </c>
+      <c r="F54">
+        <v>-0.005228087532834167</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B55">
-        <v>0.04467301208758391</v>
+        <v>0.1140976185993622</v>
       </c>
       <c r="C55">
-        <v>-0.09317493250286057</v>
+        <v>0.01658844701937985</v>
       </c>
       <c r="D55">
-        <v>-0.004845412604583739</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>0.009290618474455135</v>
+      </c>
+      <c r="E55">
+        <v>0.02817322639766543</v>
+      </c>
+      <c r="F55">
+        <v>0.04649545051469515</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B56">
-        <v>0.06322159977637137</v>
+        <v>0.17693632651561</v>
       </c>
       <c r="C56">
-        <v>-0.154121841339682</v>
+        <v>0.01665356594302483</v>
       </c>
       <c r="D56">
-        <v>0.01506160813459773</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.0002041978397602207</v>
+      </c>
+      <c r="E56">
+        <v>0.03554260107472949</v>
+      </c>
+      <c r="F56">
+        <v>0.05053237252920992</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,626 +1831,896 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B58">
-        <v>0.02149749006372796</v>
+        <v>0.04615211291621713</v>
       </c>
       <c r="C58">
-        <v>-0.0443944788606121</v>
+        <v>0.0001021228973079599</v>
       </c>
       <c r="D58">
-        <v>-0.02530081704635076</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>0.06795968591880612</v>
+      </c>
+      <c r="E58">
+        <v>0.02706071268516731</v>
+      </c>
+      <c r="F58">
+        <v>-0.03540296031539923</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B59">
-        <v>0.04606013178796482</v>
+        <v>0.1680844914701987</v>
       </c>
       <c r="C59">
-        <v>-0.1245599437903612</v>
+        <v>0.02125716874831802</v>
       </c>
       <c r="D59">
-        <v>0.213443478774661</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>-0.2190908945321369</v>
+      </c>
+      <c r="E59">
+        <v>-0.04655461473445641</v>
+      </c>
+      <c r="F59">
+        <v>-0.03519151199101649</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B60">
-        <v>0.0797905820254959</v>
+        <v>0.2319841614866446</v>
       </c>
       <c r="C60">
-        <v>-0.2566571249386685</v>
+        <v>-0.002830855640915053</v>
       </c>
       <c r="D60">
-        <v>-0.001536830850120271</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>0.04279804621881218</v>
+      </c>
+      <c r="E60">
+        <v>0.01179544764334602</v>
+      </c>
+      <c r="F60">
+        <v>-0.005106408390900036</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B61">
-        <v>0.05289366912464865</v>
+        <v>0.08156433412048769</v>
       </c>
       <c r="C61">
-        <v>-0.1184865883074031</v>
+        <v>0.01156623755092909</v>
       </c>
       <c r="D61">
-        <v>-0.05366895465786789</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>0.1168789996069733</v>
+      </c>
+      <c r="E61">
+        <v>0.03864777636844401</v>
+      </c>
+      <c r="F61">
+        <v>0.0112122527271151</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B62">
-        <v>0.06558784591344752</v>
+        <v>0.1700046987799352</v>
       </c>
       <c r="C62">
-        <v>-0.1535106661104405</v>
+        <v>0.01994402649763747</v>
       </c>
       <c r="D62">
-        <v>0.01165290712616422</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>0.006195464862494262</v>
+      </c>
+      <c r="E62">
+        <v>0.03469655929751681</v>
+      </c>
+      <c r="F62">
+        <v>0.03241860427296993</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B63">
-        <v>0.01974602716510254</v>
+        <v>0.04613603845428912</v>
       </c>
       <c r="C63">
-        <v>-0.04442748327144298</v>
+        <v>0.001786456524867673</v>
       </c>
       <c r="D63">
-        <v>-0.03156673116157421</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>0.05835508663944405</v>
+      </c>
+      <c r="E63">
+        <v>0.02162421746081686</v>
+      </c>
+      <c r="F63">
+        <v>0.004475144317508352</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B64">
-        <v>0.04279356489915907</v>
+        <v>0.1103196616139554</v>
       </c>
       <c r="C64">
-        <v>-0.08381963305565643</v>
+        <v>0.01103252533400035</v>
       </c>
       <c r="D64">
-        <v>-0.007921695006423212</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>0.04357963362585531</v>
+      </c>
+      <c r="E64">
+        <v>0.02482825740477244</v>
+      </c>
+      <c r="F64">
+        <v>0.02537306398572275</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B65">
-        <v>0.06802855893885962</v>
+        <v>0.1476426146272532</v>
       </c>
       <c r="C65">
-        <v>-0.1100008295473005</v>
+        <v>0.03269982072242076</v>
       </c>
       <c r="D65">
-        <v>0.03274534934505473</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>-0.04022020083666445</v>
+      </c>
+      <c r="E65">
+        <v>0.005667114292325322</v>
+      </c>
+      <c r="F65">
+        <v>0.04062451013007255</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B66">
-        <v>0.07160589418984677</v>
+        <v>0.1246457418674935</v>
       </c>
       <c r="C66">
-        <v>-0.1665712504394925</v>
+        <v>0.01380726589126679</v>
       </c>
       <c r="D66">
-        <v>-0.09310334726410928</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>0.1418218433733985</v>
+      </c>
+      <c r="E66">
+        <v>0.06538277065762084</v>
+      </c>
+      <c r="F66">
+        <v>0.0326241079280293</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B67">
-        <v>0.02547151303762349</v>
+        <v>0.0606141927354346</v>
       </c>
       <c r="C67">
-        <v>-0.06278910098799129</v>
+        <v>0.003311743721529055</v>
       </c>
       <c r="D67">
-        <v>-0.01630865026481338</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>0.05512043780001898</v>
+      </c>
+      <c r="E67">
+        <v>0.01733449246974347</v>
+      </c>
+      <c r="F67">
+        <v>-0.03378347646966821</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B68">
-        <v>0.03284566068723727</v>
+        <v>0.1160492842277108</v>
       </c>
       <c r="C68">
-        <v>-0.04928975772035985</v>
+        <v>0.03156287963743474</v>
       </c>
       <c r="D68">
-        <v>0.1871152583663617</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>-0.2604410668084534</v>
+      </c>
+      <c r="E68">
+        <v>-0.08629173479903308</v>
+      </c>
+      <c r="F68">
+        <v>0.006748419928965162</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B69">
-        <v>0.01306332677129093</v>
+        <v>0.03997746871855574</v>
       </c>
       <c r="C69">
-        <v>-0.03251341560380001</v>
+        <v>0.001338119374774699</v>
       </c>
       <c r="D69">
-        <v>0.01812514930786245</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>0.007083226345459293</v>
+      </c>
+      <c r="E69">
+        <v>0.02254571656367089</v>
+      </c>
+      <c r="F69">
+        <v>2.651909478064731e-05</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B70">
-        <v>-0.01015503308950514</v>
+        <v>0.06578894881772859</v>
       </c>
       <c r="C70">
-        <v>-0.02579674168526714</v>
+        <v>-0.02781389581944561</v>
       </c>
       <c r="D70">
-        <v>0.04878099741716414</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>0.02458231586426957</v>
+      </c>
+      <c r="E70">
+        <v>-0.0389943393364957</v>
+      </c>
+      <c r="F70">
+        <v>-0.182744463877334</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B71">
-        <v>0.04133206439231525</v>
+        <v>0.1360188359192512</v>
       </c>
       <c r="C71">
-        <v>-0.06604176496720721</v>
+        <v>0.03586028368288966</v>
       </c>
       <c r="D71">
-        <v>0.2071257800552841</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>-0.2734053221967065</v>
+      </c>
+      <c r="E71">
+        <v>-0.09645273167812085</v>
+      </c>
+      <c r="F71">
+        <v>0.01256577777492819</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B72">
-        <v>0.06211611189287405</v>
+        <v>0.1417810828791113</v>
       </c>
       <c r="C72">
-        <v>-0.1156053179582202</v>
+        <v>0.02602281052466098</v>
       </c>
       <c r="D72">
-        <v>0.02706660174216178</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>-0.0002702552142526949</v>
+      </c>
+      <c r="E72">
+        <v>0.03905945795001266</v>
+      </c>
+      <c r="F72">
+        <v>0.03281787037769839</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B73">
-        <v>0.0741041511955339</v>
+        <v>0.2015923795655586</v>
       </c>
       <c r="C73">
-        <v>-0.1931986878244842</v>
+        <v>0.01215669239060832</v>
       </c>
       <c r="D73">
-        <v>0.04677936838687773</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>0.01758301021274856</v>
+      </c>
+      <c r="E73">
+        <v>0.06427900967408935</v>
+      </c>
+      <c r="F73">
+        <v>0.03528153040962589</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B74">
-        <v>0.04324832462373979</v>
+        <v>0.09463897902968928</v>
       </c>
       <c r="C74">
-        <v>-0.1020197141700728</v>
+        <v>0.01316986946693587</v>
       </c>
       <c r="D74">
-        <v>0.01283507039448906</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>0.01703506685410295</v>
+      </c>
+      <c r="E74">
+        <v>0.04380552218797602</v>
+      </c>
+      <c r="F74">
+        <v>0.0572122496055758</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B75">
-        <v>0.06758780047075241</v>
+        <v>0.127865466161955</v>
       </c>
       <c r="C75">
-        <v>-0.1256994949445835</v>
+        <v>0.02790051511242634</v>
       </c>
       <c r="D75">
-        <v>0.01756806440559387</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>0.03027721756089433</v>
+      </c>
+      <c r="E75">
+        <v>0.05829014932878575</v>
+      </c>
+      <c r="F75">
+        <v>0.01921797769126011</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B76">
-        <v>0.0001369985516827921</v>
+        <v>0.0001212130492463507</v>
       </c>
       <c r="C76">
-        <v>-0.0004067509782046882</v>
+        <v>5.345054008427739e-05</v>
       </c>
       <c r="D76">
-        <v>0.0001746887963414106</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>-3.979177335568126e-05</v>
+      </c>
+      <c r="E76">
+        <v>0.0001781553732754552</v>
+      </c>
+      <c r="F76">
+        <v>0.000189677179588308</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B77">
-        <v>0.04264459759430082</v>
+        <v>0.08701419320038879</v>
       </c>
       <c r="C77">
-        <v>-0.08875285995181934</v>
+        <v>0.008066333955474075</v>
       </c>
       <c r="D77">
-        <v>-0.0691394903168856</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>0.1127947478257347</v>
+      </c>
+      <c r="E77">
+        <v>0.03871130746279138</v>
+      </c>
+      <c r="F77">
+        <v>0.03073962227436247</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B78">
-        <v>0.08969877808787538</v>
+        <v>0.1008760365245031</v>
       </c>
       <c r="C78">
-        <v>-0.1341949160828278</v>
+        <v>0.03956296021403491</v>
       </c>
       <c r="D78">
-        <v>0.01639142957758933</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>0.1161593673003398</v>
+      </c>
+      <c r="E78">
+        <v>0.07467471269689037</v>
+      </c>
+      <c r="F78">
+        <v>0.04400702891550456</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B79">
-        <v>0.06617648735019355</v>
+        <v>0.1645191199122192</v>
       </c>
       <c r="C79">
-        <v>-0.1370576119100417</v>
+        <v>0.0224621235590225</v>
       </c>
       <c r="D79">
-        <v>0.02576890528963079</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>0.01444540830989465</v>
+      </c>
+      <c r="E79">
+        <v>0.04621042651917368</v>
+      </c>
+      <c r="F79">
+        <v>0.009829524685356122</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B80">
-        <v>0.02965841442367673</v>
+        <v>0.08300564876044071</v>
       </c>
       <c r="C80">
-        <v>-0.08691698259196463</v>
+        <v>-0.0009238370288229789</v>
       </c>
       <c r="D80">
-        <v>-0.01383288007003586</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>0.05622067662201384</v>
+      </c>
+      <c r="E80">
+        <v>0.03645839829595024</v>
+      </c>
+      <c r="F80">
+        <v>-0.02198604278661845</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B81">
-        <v>0.06790601932113859</v>
+        <v>0.1210947040188075</v>
       </c>
       <c r="C81">
-        <v>-0.1183656946942648</v>
+        <v>0.03177110732292696</v>
       </c>
       <c r="D81">
-        <v>0.003540527537900975</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>0.01486829847350381</v>
+      </c>
+      <c r="E81">
+        <v>0.05663784779894967</v>
+      </c>
+      <c r="F81">
+        <v>0.01720154359318733</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B82">
-        <v>0.06938313942389696</v>
+        <v>0.1658088771501564</v>
       </c>
       <c r="C82">
-        <v>-0.1478157935325236</v>
+        <v>0.02417844531125096</v>
       </c>
       <c r="D82">
-        <v>0.007017611224454667</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>0.004198572366189729</v>
+      </c>
+      <c r="E82">
+        <v>0.02862507422493475</v>
+      </c>
+      <c r="F82">
+        <v>0.08061172282324083</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B83">
-        <v>0.02762606797820988</v>
+        <v>0.05986937266463747</v>
       </c>
       <c r="C83">
-        <v>-0.06190616238995201</v>
+        <v>0.002746224530330586</v>
       </c>
       <c r="D83">
-        <v>-0.02211297082469561</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>0.05105398438427926</v>
+      </c>
+      <c r="E83">
+        <v>0.00493247792620394</v>
+      </c>
+      <c r="F83">
+        <v>-0.03080597082499427</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B84">
-        <v>0.0375521653601671</v>
+        <v>0.05888902779437361</v>
       </c>
       <c r="C84">
-        <v>-0.06695548289745824</v>
+        <v>0.01114983884038277</v>
       </c>
       <c r="D84">
-        <v>-0.03520774712842627</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>0.06344205703038665</v>
+      </c>
+      <c r="E84">
+        <v>0.006423067033466499</v>
+      </c>
+      <c r="F84">
+        <v>0.003744629405159444</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B85">
-        <v>0.06477817749831151</v>
+        <v>0.1367344356391504</v>
       </c>
       <c r="C85">
-        <v>-0.1171520224447118</v>
+        <v>0.02773073632492336</v>
       </c>
       <c r="D85">
-        <v>0.008715233892813331</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>0.009998995808728163</v>
+      </c>
+      <c r="E85">
+        <v>0.03822136059157341</v>
+      </c>
+      <c r="F85">
+        <v>0.04519236977618641</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B86">
-        <v>0.0284004662943851</v>
+        <v>0.09486035118413992</v>
       </c>
       <c r="C86">
-        <v>-0.08136263941534495</v>
+        <v>-0.005421863425415316</v>
       </c>
       <c r="D86">
-        <v>0.1333199739167578</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>0.03860374755220365</v>
+      </c>
+      <c r="E86">
+        <v>0.2129572210750153</v>
+      </c>
+      <c r="F86">
+        <v>-0.9093423436021274</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B87">
-        <v>0.06672209948520305</v>
+        <v>0.09685536509707987</v>
       </c>
       <c r="C87">
-        <v>-0.124159015661233</v>
+        <v>0.02001918328770982</v>
       </c>
       <c r="D87">
-        <v>-0.06622496280651895</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>0.09430920501197963</v>
+      </c>
+      <c r="E87">
+        <v>-0.05193143717282575</v>
+      </c>
+      <c r="F87">
+        <v>0.04933752442181342</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B88">
-        <v>0.02321812895175605</v>
+        <v>0.06106021910437653</v>
       </c>
       <c r="C88">
-        <v>-0.05066044424760476</v>
+        <v>0.002161635876145751</v>
       </c>
       <c r="D88">
-        <v>-0.01571156828671582</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>0.04955028023990543</v>
+      </c>
+      <c r="E88">
+        <v>0.02458635729685699</v>
+      </c>
+      <c r="F88">
+        <v>0.01296904111767995</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B89">
-        <v>0.02287858354372475</v>
+        <v>0.1333044409130824</v>
       </c>
       <c r="C89">
-        <v>-0.07819547262797054</v>
+        <v>0.01307216428317476</v>
       </c>
       <c r="D89">
-        <v>0.2232202259530385</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>-0.2498226168071745</v>
+      </c>
+      <c r="E89">
+        <v>-0.09071653689066739</v>
+      </c>
+      <c r="F89">
+        <v>-0.007279740420240931</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B90">
-        <v>0.03977325719056431</v>
+        <v>0.1505210745687847</v>
       </c>
       <c r="C90">
-        <v>-0.0648181419703997</v>
+        <v>0.03229871319271814</v>
       </c>
       <c r="D90">
-        <v>0.2054437871167167</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>-0.2702168446132427</v>
+      </c>
+      <c r="E90">
+        <v>-0.1126415948714533</v>
+      </c>
+      <c r="F90">
+        <v>-0.002306404503742657</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B91">
-        <v>0.04837580618578092</v>
+        <v>0.1206646591221329</v>
       </c>
       <c r="C91">
-        <v>-0.1044907964154385</v>
+        <v>0.01897666476867883</v>
       </c>
       <c r="D91">
-        <v>0.03416905660887413</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>-0.01335295251450152</v>
+      </c>
+      <c r="E91">
+        <v>0.05652021095294127</v>
+      </c>
+      <c r="F91">
+        <v>-0.002256226079301573</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B92">
-        <v>0.02956568686426525</v>
+        <v>0.1474902783944959</v>
       </c>
       <c r="C92">
-        <v>-0.08628353347014825</v>
+        <v>0.02376186842652137</v>
       </c>
       <c r="D92">
-        <v>0.2331644589582583</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>-0.2926463164506452</v>
+      </c>
+      <c r="E92">
+        <v>-0.1018356820117999</v>
+      </c>
+      <c r="F92">
+        <v>-0.01164294827819411</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B93">
-        <v>0.03949729616888291</v>
+        <v>0.152109537550531</v>
       </c>
       <c r="C93">
-        <v>-0.08242268294840066</v>
+        <v>0.02794736330667823</v>
       </c>
       <c r="D93">
-        <v>0.2343278489037835</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>-0.2691323805729582</v>
+      </c>
+      <c r="E93">
+        <v>-0.07779189265818742</v>
+      </c>
+      <c r="F93">
+        <v>0.004142742092086826</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B94">
-        <v>0.06663935854599502</v>
+        <v>0.1302731589551737</v>
       </c>
       <c r="C94">
-        <v>-0.1356909937254133</v>
+        <v>0.02459162962209453</v>
       </c>
       <c r="D94">
-        <v>-0.004607703444040745</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>0.04304312037575588</v>
+      </c>
+      <c r="E94">
+        <v>0.05794832981511759</v>
+      </c>
+      <c r="F94">
+        <v>0.03553340878692827</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B95">
-        <v>0.04805609266005724</v>
+        <v>0.1269127355464719</v>
       </c>
       <c r="C95">
-        <v>-0.1157161773981436</v>
+        <v>0.003452317290427184</v>
       </c>
       <c r="D95">
-        <v>-0.05455838421941746</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>0.09241641565364338</v>
+      </c>
+      <c r="E95">
+        <v>0.04663226297579954</v>
+      </c>
+      <c r="F95">
+        <v>-0.007111204550327103</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B96">
-        <v>-0.9128695079531469</v>
+        <v>0.1064189825901758</v>
       </c>
       <c r="C96">
-        <v>-0.3973910153310646</v>
+        <v>-0.9875039799483194</v>
       </c>
       <c r="D96">
-        <v>0.02258446089032325</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4">
+        <v>-0.04798060093517564</v>
+      </c>
+      <c r="E96">
+        <v>0.05539384816418987</v>
+      </c>
+      <c r="F96">
+        <v>0.04155270897787098</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B97">
-        <v>0.04330331387771234</v>
+        <v>0.1926886443394452</v>
       </c>
       <c r="C97">
-        <v>-0.1568463443513841</v>
+        <v>-0.007399048333808757</v>
       </c>
       <c r="D97">
-        <v>0.07438756457116943</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>-0.0172889132761255</v>
+      </c>
+      <c r="E97">
+        <v>0.01789612985035676</v>
+      </c>
+      <c r="F97">
+        <v>-0.08645093892836619</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B98">
-        <v>0.06700811630740681</v>
+        <v>0.2046004419858929</v>
       </c>
       <c r="C98">
-        <v>-0.1921877611801216</v>
+        <v>0.006862715043372949</v>
       </c>
       <c r="D98">
-        <v>0.007686740675342113</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>0.01374655303362843</v>
+      </c>
+      <c r="E98">
+        <v>-0.08422937637017568</v>
+      </c>
+      <c r="F98">
+        <v>-0.09071593255096787</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B99">
-        <v>0.01502024221822023</v>
+        <v>0.05547004683114331</v>
       </c>
       <c r="C99">
-        <v>-0.0574053714833294</v>
+        <v>-0.004719205758036365</v>
       </c>
       <c r="D99">
-        <v>-0.003797597744086694</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
+        <v>0.03942119225857866</v>
+      </c>
+      <c r="E99">
+        <v>0.02272082698257067</v>
+      </c>
+      <c r="F99">
+        <v>0.001232299732684066</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B100">
-        <v>0.01796864504395184</v>
+        <v>0.1259025490311754</v>
       </c>
       <c r="C100">
-        <v>-0.1356638998441627</v>
+        <v>-0.05439023360730221</v>
       </c>
       <c r="D100">
-        <v>-0.7037717606756054</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4">
+        <v>0.3435223734579865</v>
+      </c>
+      <c r="E100">
+        <v>-0.8890247228287211</v>
+      </c>
+      <c r="F100">
+        <v>-0.1432453129130284</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B101">
-        <v>0.0172508730820784</v>
+        <v>0.02744717160074987</v>
       </c>
       <c r="C101">
-        <v>-0.0185499503918502</v>
+        <v>0.008354879948176928</v>
       </c>
       <c r="D101">
-        <v>-0.00510765633015626</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>0.03173346723044881</v>
+      </c>
+      <c r="E101">
+        <v>0.01080608389669309</v>
+      </c>
+      <c r="F101">
+        <v>-0.01247384725934194</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2119,10 +2731,16 @@
       <c r="D102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:4">
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +2751,16 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +2769,12 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
         <v>0</v>
       </c>
     </row>
